--- a/test_scripts/edge/QS006_demoqa_testscript.xlsx
+++ b/test_scripts/edge/QS006_demoqa_testscript.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\java-projects\webautomationframework_java\test_scripts\edge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA72772-E35B-437C-94E8-C712448293A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2510B-62D5-4704-8D9C-E9AD64B21F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -177,6 +177,9 @@
     <t>wait_for_seconds</t>
   </si>
   <si>
+    <t>28 December 2021</t>
+  </si>
+  <si>
     <t>scroll_page</t>
   </si>
   <si>
@@ -272,9 +275,6 @@
   </si>
   <si>
     <t>chromedgerunonlinux.txt</t>
-  </si>
-  <si>
-    <t>31 April 2021</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,10 +874,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -910,7 +910,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,13 +918,13 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -957,10 +957,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -968,10 +968,10 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,10 +979,10 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -990,24 +990,24 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -1015,13 +1015,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1041,10 +1041,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1053,10 +1053,10 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,10 +1064,10 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,10 +1075,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
